--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,22 +22,31 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>515210</t>
+  </si>
+  <si>
     <t>502023</t>
   </si>
   <si>
     <t>168203</t>
   </si>
   <si>
-    <t>515210</t>
+    <t>国泰中证钢铁ETF</t>
   </si>
   <si>
     <t>鹏华国证钢铁行业指数（LOF）</t>
@@ -46,7 +55,16 @@
     <t>中融国证钢铁行业指数</t>
   </si>
   <si>
-    <t>国泰中证钢铁ETF</t>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>96.57</t>
   </si>
   <si>
     <t>94.83</t>
@@ -55,7 +73,7 @@
     <t>93.23</t>
   </si>
   <si>
-    <t>96.57</t>
+    <t>2.89</t>
   </si>
   <si>
     <t>3.08</t>
@@ -64,7 +82,13 @@
     <t>2.83</t>
   </si>
   <si>
-    <t>2.89</t>
+    <t>0.0717</t>
+  </si>
+  <si>
+    <t>0.0373</t>
+  </si>
+  <si>
+    <t>0.0238</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,65 +468,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>515210</t>
-  </si>
-  <si>
-    <t>502023</t>
-  </si>
-  <si>
-    <t>168203</t>
-  </si>
-  <si>
-    <t>国泰中证钢铁ETF</t>
-  </si>
-  <si>
-    <t>鹏华国证钢铁行业指数（LOF）</t>
-  </si>
-  <si>
-    <t>中融国证钢铁行业指数</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>96.57</t>
-  </si>
-  <si>
-    <t>94.83</t>
-  </si>
-  <si>
-    <t>93.23</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>0.0717</t>
-  </si>
-  <si>
-    <t>0.0373</t>
-  </si>
-  <si>
-    <t>0.0238</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.32</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.8</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.13</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.32</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.8</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.13</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.32</v>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.8</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1927,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="D6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -687,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>19.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>97.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5601</t>
+          <t>0.5756</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -725,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5438</t>
+          <t>0.3060</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>012810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3252</t>
+          <t>0.1344</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -801,26 +763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1249</t>
+          <t>0.1074</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -829,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>013802</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>财通资管中证钢铁指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -867,187 +829,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>013803</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>财通资管中证钢铁指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36.94</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0799</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>36.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1062,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1123,26 +933,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6554</t>
+          <t>0.5116</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1161,26 +971,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5303</t>
+          <t>0.4292</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1199,25 +1009,101 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1358</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1478,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1539,26 +1425,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5116</t>
+          <t>0.6554</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1577,26 +1463,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.55</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4292</t>
+          <t>0.5303</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1615,101 +1501,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1152</t>
+          <t>0.1358</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013802</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013803</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1724,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,7 +1555,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1785,26 +1595,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.10</t>
+          <t>98.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5756</t>
+          <t>0.5601</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1823,26 +1633,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3060</t>
+          <t>0.5438</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1851,36 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012810</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）C</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1344</t>
+          <t>0.3252</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1899,26 +1709,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1074</t>
+          <t>0.1249</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1927,36 +1737,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1965,35 +1775,187 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013803</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数C</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0799</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2008,128 +1970,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.13</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.13</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.13</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -583,6 +600,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,252 +1196,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5116</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4292</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1152</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013802</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013803</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1179,22 +1270,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4967</t>
+          <t>0.5116</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1217,26 +1308,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.87</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4950</t>
+          <t>0.4292</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1255,26 +1346,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1377</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1293,26 +1384,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1331,26 +1422,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1359,6 +1450,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1528,7 +1865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601005-重庆钢铁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.13</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4070</t>
+          <t>0.3897</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2436</t>
+          <t>0.2332</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1115</t>
+          <t>0.0853</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -780,12 +797,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -795,11 +812,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.0805</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -823,12 +840,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -856,22 +873,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -894,12 +911,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -907,11 +924,13 @@
           <t>2.53</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -920,6 +939,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,252 +1535,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5116</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4292</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1152</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013802</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013803</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1516,22 +1609,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4967</t>
+          <t>0.5116</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1554,26 +1647,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.87</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4950</t>
+          <t>0.4292</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1592,26 +1685,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1377</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1630,26 +1723,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1668,26 +1761,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1696,6 +1789,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1865,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2301,7 +2640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
